--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925C6CA-114D-4E30-A3BA-214081CF7DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582FF195-8482-4489-B7CD-F60EAEDC1913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="2400" windowWidth="16320" windowHeight="8964" activeTab="2" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,7 +157,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;1</t>
+    <t>&lt;1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1.2, &lt;1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6B9F04-9A9B-4EC8-AEA6-95032E366215}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -771,41 +768,47 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -813,20 +816,82 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>

--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582FF195-8482-4489-B7CD-F60EAEDC1913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D68AED5-E9B9-4671-8E83-63B5E0FEC8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,35 +137,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放量放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;=1.2, &lt;1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&gt;=1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通放量放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度放量放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度放量放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放量进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通缩量放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度缩量放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度缩量放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通缩量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度缩量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度缩量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降人气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=0.65, &lt;0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=0.85, &lt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;= 1, &lt; 1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1, &lt;1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 1.2)</t>
+  </si>
+  <si>
+    <t>[1, 1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.2, 1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.5, 00)</t>
+  </si>
+  <si>
+    <t>[1.5, 00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.85, 00)</t>
+  </si>
+  <si>
+    <t>[1.2, 00)</t>
+  </si>
+  <si>
+    <t>[0, 0.65)</t>
+  </si>
+  <si>
+    <t>[0, 0.65)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 0.85)</t>
+  </si>
+  <si>
+    <t>[0.85, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.65, 0.885)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1, &lt; 1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.65, 0.85)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骤降人气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高放量降人气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通放量降人气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +813,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -719,31 +873,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6B9F04-9A9B-4EC8-AEA6-95032E366215}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -756,11 +917,21 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"[[" &amp;H2&amp;","&amp;""""&amp;E2&amp;""""&amp;"],"</f>
+        <v>[[0,"普通放量"],</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -771,13 +942,23 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"[" &amp;H3&amp;","&amp;""""&amp;E3&amp;""""&amp;"],"</f>
+        <v>[1,"中度放量"],</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -788,13 +969,23 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"[" &amp;H4&amp;","&amp;""""&amp;E4&amp;""""&amp;"],"</f>
+        <v>[2,"高度放量"],</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -805,13 +996,23 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"[" &amp;H5&amp;","&amp;""""&amp;E5&amp;""""&amp;"],"</f>
+        <v>[3,"普通放量放缓"],</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -822,13 +1023,23 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"[" &amp;H6&amp;","&amp;""""&amp;E6&amp;""""&amp;"],"</f>
+        <v>[4,"中度放量放缓"],</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -839,13 +1050,23 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="str">
+        <f>"[" &amp;H7&amp;","&amp;""""&amp;E7&amp;""""&amp;"],"</f>
+        <v>[5,"高度放量放缓"],</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -853,13 +1074,26 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="str">
+        <f>"[" &amp;H8&amp;","&amp;""""&amp;E8&amp;""""&amp;"],"</f>
+        <v>[6,"普通缩量"],</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -870,29 +1104,290 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="str">
+        <f>"[" &amp;H9&amp;","&amp;""""&amp;E9&amp;""""&amp;"],"</f>
+        <v>[7,"中度缩量"],</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="str">
+        <f>"[" &amp;H10&amp;","&amp;""""&amp;E10&amp;""""&amp;"],"</f>
+        <v>[8,"高度缩量"],</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="str">
+        <f>"[" &amp;H11&amp;","&amp;""""&amp;E11&amp;""""&amp;"],"</f>
+        <v>[9,"普通缩量放缓"],</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="str">
+        <f>"[" &amp;H12&amp;","&amp;""""&amp;E12&amp;""""&amp;"],"</f>
+        <v>[10,"中度缩量放缓"],</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" t="str">
+        <f>"[" &amp;H13&amp;","&amp;""""&amp;E13&amp;""""&amp;"],"</f>
+        <v>[11,"高度缩量放缓"],</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="str">
+        <f>"[" &amp;H14&amp;","&amp;""""&amp;E14&amp;""""&amp;"],"</f>
+        <v>[12,"缩量进攻"],</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15" t="str">
+        <f>"[" &amp;H15&amp;","&amp;""""&amp;E15&amp;""""&amp;"],"</f>
+        <v>[13,"反转进攻"],</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16" t="str">
+        <f>"[" &amp;H16&amp;","&amp;""""&amp;E16&amp;""""&amp;"],"</f>
+        <v>[14,"放量进攻"],</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17" t="str">
+        <f>"[" &amp;H17&amp;","&amp;""""&amp;E17&amp;""""&amp;"],"</f>
+        <v>[15,"中高放量降人气"],</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18" t="str">
+        <f>"[" &amp;H18&amp;","&amp;""""&amp;E18&amp;""""&amp;"],"</f>
+        <v>[16,"普通放量降人气"],</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19" t="str">
+        <f>"[" &amp;H19&amp;","&amp;""""&amp;E19&amp;""""&amp;"]]"</f>
+        <v>[17,"骤降人气"]]</v>
       </c>
     </row>
   </sheetData>

--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D68AED5-E9B9-4671-8E83-63B5E0FEC8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2E340-7C36-499D-9041-ECDDCC806085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="vol pattern" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="mv stage" sheetId="3" r:id="rId3"/>
+    <sheet name="ma stage" sheetId="4" r:id="rId4"/>
+    <sheet name="trading stage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="136">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +322,224 @@
   </si>
   <si>
     <t>普通放量降人气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma23_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma13_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12_ratio&gt;ma23_ratio</t>
+  </si>
+  <si>
+    <t>ma12_ratio&lt;ma23_ratio</t>
+  </si>
+  <si>
+    <t>中度空头</t>
+  </si>
+  <si>
+    <t>高度空头</t>
+  </si>
+  <si>
+    <t>普通空头放缓</t>
+  </si>
+  <si>
+    <t>中度空头放缓</t>
+  </si>
+  <si>
+    <t>高度空头放缓</t>
+  </si>
+  <si>
+    <t>反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空头反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高上涨回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通上涨回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多转空回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通上涨放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度上涨放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度上涨放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通空头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 181.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 426.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 297.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3, 232.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4, 1176.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5, 1038.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6, 174.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7, 507.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8, 281.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9, 217.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10, 903.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11, 1429.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [12, 128.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [13, 442.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [14, 310.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [15, 103.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 391.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [17, 294.0]</t>
+  </si>
+  <si>
+    <t>ma_stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断多头，空头，调整，反弹，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv_stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断阶段量能的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_stage_overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重仓多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重仓空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻仓多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻仓空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中仓多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中仓空</t>
+  </si>
+  <si>
+    <t>震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol_pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断收盘价位置 是否超买超卖 是否有均线支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +547,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +562,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,9 +592,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6B9F04-9A9B-4EC8-AEA6-95032E366215}">
-  <dimension ref="B1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -924,11 +1153,11 @@
         <v>57</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
         <f>"[[" &amp;H2&amp;","&amp;""""&amp;E2&amp;""""&amp;"],"</f>
-        <v>[[0,"普通放量"],</v>
+        <v>[[1,"普通放量"],</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -951,11 +1180,11 @@
         <v>58</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="str">
-        <f>"[" &amp;H3&amp;","&amp;""""&amp;E3&amp;""""&amp;"],"</f>
-        <v>[1,"中度放量"],</v>
+        <f t="shared" ref="I3:I18" si="0">"[" &amp;H3&amp;","&amp;""""&amp;E3&amp;""""&amp;"],"</f>
+        <v>[2,"中度放量"],</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -978,11 +1207,11 @@
         <v>60</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="str">
-        <f>"[" &amp;H4&amp;","&amp;""""&amp;E4&amp;""""&amp;"],"</f>
-        <v>[2,"高度放量"],</v>
+        <f t="shared" si="0"/>
+        <v>[3,"高度放量"],</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1005,11 +1234,11 @@
         <v>56</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="str">
-        <f>"[" &amp;H5&amp;","&amp;""""&amp;E5&amp;""""&amp;"],"</f>
-        <v>[3,"普通放量放缓"],</v>
+        <f t="shared" si="0"/>
+        <v>[4,"普通放量放缓"],</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1032,11 +1261,11 @@
         <v>58</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" t="str">
-        <f>"[" &amp;H6&amp;","&amp;""""&amp;E6&amp;""""&amp;"],"</f>
-        <v>[4,"中度放量放缓"],</v>
+        <f t="shared" si="0"/>
+        <v>[5,"中度放量放缓"],</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1059,11 +1288,11 @@
         <v>59</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="str">
-        <f>"[" &amp;H7&amp;","&amp;""""&amp;E7&amp;""""&amp;"],"</f>
-        <v>[5,"高度放量放缓"],</v>
+        <f t="shared" si="0"/>
+        <v>[6,"高度放量放缓"],</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,11 +1315,11 @@
         <v>61</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" t="str">
-        <f>"[" &amp;H8&amp;","&amp;""""&amp;E8&amp;""""&amp;"],"</f>
-        <v>[6,"普通缩量"],</v>
+        <f t="shared" si="0"/>
+        <v>[7,"普通缩量"],</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1113,11 +1342,11 @@
         <v>71</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" t="str">
-        <f>"[" &amp;H9&amp;","&amp;""""&amp;E9&amp;""""&amp;"],"</f>
-        <v>[7,"中度缩量"],</v>
+        <f t="shared" si="0"/>
+        <v>[8,"中度缩量"],</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -1140,11 +1369,11 @@
         <v>64</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" t="str">
-        <f>"[" &amp;H10&amp;","&amp;""""&amp;E10&amp;""""&amp;"],"</f>
-        <v>[8,"高度缩量"],</v>
+        <f t="shared" si="0"/>
+        <v>[9,"高度缩量"],</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1167,11 +1396,11 @@
         <v>61</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" t="str">
-        <f>"[" &amp;H11&amp;","&amp;""""&amp;E11&amp;""""&amp;"],"</f>
-        <v>[9,"普通缩量放缓"],</v>
+        <f t="shared" si="0"/>
+        <v>[10,"普通缩量放缓"],</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -1194,11 +1423,11 @@
         <v>67</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" t="str">
-        <f>"[" &amp;H12&amp;","&amp;""""&amp;E12&amp;""""&amp;"],"</f>
-        <v>[10,"中度缩量放缓"],</v>
+        <f t="shared" si="0"/>
+        <v>[11,"中度缩量放缓"],</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -1221,11 +1450,11 @@
         <v>63</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="str">
-        <f>"[" &amp;H13&amp;","&amp;""""&amp;E13&amp;""""&amp;"],"</f>
-        <v>[11,"高度缩量放缓"],</v>
+        <f t="shared" si="0"/>
+        <v>[12,"高度缩量放缓"],</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -1248,11 +1477,11 @@
         <v>65</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="str">
-        <f>"[" &amp;H14&amp;","&amp;""""&amp;E14&amp;""""&amp;"],"</f>
-        <v>[12,"缩量进攻"],</v>
+        <f t="shared" si="0"/>
+        <v>[13,"缩量进攻"],</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -1275,11 +1504,11 @@
         <v>66</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="str">
-        <f>"[" &amp;H15&amp;","&amp;""""&amp;E15&amp;""""&amp;"],"</f>
-        <v>[13,"反转进攻"],</v>
+        <f t="shared" si="0"/>
+        <v>[14,"反转进攻"],</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1302,14 +1531,14 @@
         <v>70</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="str">
-        <f>"[" &amp;H16&amp;","&amp;""""&amp;E16&amp;""""&amp;"],"</f>
-        <v>[14,"放量进攻"],</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>[15,"放量进攻"],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1329,14 +1558,14 @@
         <v>62</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" t="str">
-        <f>"[" &amp;H17&amp;","&amp;""""&amp;E17&amp;""""&amp;"],"</f>
-        <v>[15,"中高放量降人气"],</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>[16,"中高放量降人气"],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1356,14 +1585,14 @@
         <v>68</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" t="str">
-        <f>"[" &amp;H18&amp;","&amp;""""&amp;E18&amp;""""&amp;"],"</f>
-        <v>[16,"普通放量降人气"],</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>[17,"普通放量降人气"],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1383,11 +1612,16 @@
         <v>69</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" t="str">
         <f>"[" &amp;H19&amp;","&amp;""""&amp;E19&amp;""""&amp;"]]"</f>
-        <v>[17,"骤降人气"]]</v>
+        <v>[18,"骤降人气"]]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1395,4 +1629,671 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB479465-A32B-4B39-A01D-6C78170DC5B5}">
+  <dimension ref="B1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"[[" &amp;H2&amp;","&amp;""""&amp;E2&amp;""""&amp;"],"</f>
+        <v>[[1,"普通上涨"],</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I18" si="0">"[" &amp;H3&amp;","&amp;""""&amp;E3&amp;""""&amp;"],"</f>
+        <v>[2,"中度上涨"],</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>[3,"高度上涨"],</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>[4,"普通上涨放缓"],</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>[5,"中度上涨放缓"],</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>[6,"高度上涨放缓"],</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>[7,"普通空头"],</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>[8,"中度空头"],</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>[9,"高度空头"],</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>[10,"普通空头放缓"],</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>[11,"中度空头放缓"],</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>[12,"高度空头放缓"],</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>[13,"空头反弹"],</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>[14,"震荡反弹"],</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>[15,"反转反弹"],</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>[16,"中高上涨回调"],</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>[17,"普通上涨回调"],</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19" t="str">
+        <f>"[" &amp;H19&amp;","&amp;""""&amp;E19&amp;""""&amp;"]]"</f>
+        <v>[18,"多转空回调"]]</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F378596-343B-43CB-AACA-BD9596242662}">
+  <dimension ref="D2:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2E340-7C36-499D-9041-ECDDCC806085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3244CF0-D305-44B8-8221-E1B2CE423201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="441" activeTab="3" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="143">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,424 +123,433 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1.2, &lt;1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=0.65, &lt;0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=0.85, &lt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;= 1, &lt; 1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1, &lt;1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 1.2)</t>
+  </si>
+  <si>
+    <t>[1, 1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.2, 1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.5, 00)</t>
+  </si>
+  <si>
+    <t>[1.5, 00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.85, 00)</t>
+  </si>
+  <si>
+    <t>[1.2, 00)</t>
+  </si>
+  <si>
+    <t>[0, 0.65)</t>
+  </si>
+  <si>
+    <t>[0, 0.65)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 0.85)</t>
+  </si>
+  <si>
+    <t>[0.85, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.65, 0.885)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 1, &lt; 1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.65, 0.85)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma23_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma13_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12_ratio&gt;ma23_ratio</t>
+  </si>
+  <si>
+    <t>ma12_ratio&lt;ma23_ratio</t>
+  </si>
+  <si>
+    <t>中度空头</t>
+  </si>
+  <si>
+    <t>高度空头</t>
+  </si>
+  <si>
+    <t>普通空头放缓</t>
+  </si>
+  <si>
+    <t>中度空头放缓</t>
+  </si>
+  <si>
+    <t>高度空头放缓</t>
+  </si>
+  <si>
+    <t>反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空头反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高上涨回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通上涨回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多转空回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通上涨放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度上涨放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度上涨放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通空头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 181.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 426.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 297.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3, 232.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4, 1176.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5, 1038.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6, 174.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7, 507.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8, 281.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9, 217.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10, 903.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11, 1429.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [12, 128.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [13, 442.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [14, 310.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [15, 103.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 391.0],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [17, 294.0]</t>
+  </si>
+  <si>
+    <t>ma_stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断多头，空头，调整，反弹，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv_stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断阶段量能的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_stage_overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重仓多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重仓空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻仓多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻仓空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中仓多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中仓空</t>
+  </si>
+  <si>
+    <t>震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol_pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断收盘价位置 是否超买超卖 是否有均线支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回踩ma1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反抽ma1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空转多反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12_ratio&lt;=ma23_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12_ratio&gt;=ma23_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通缩量</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mv12_ratio&gt;mv23_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv12_ratio&lt;=mv23_ratio</t>
   </si>
   <si>
     <t>mv12_ratio&lt;mv23_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=1.2, &lt;1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv12_ratio&gt;=mv23_ratio</t>
   </si>
   <si>
     <t>普通放量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中度放量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度放量</t>
+  </si>
+  <si>
+    <t>高度放量放缓</t>
+  </si>
+  <si>
+    <t>中度放量放缓</t>
   </si>
   <si>
     <t>普通放量放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中度放量放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度放量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度放量放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;0.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩量进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放量进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高放量回调</t>
+  </si>
+  <si>
+    <t>普通放量回调</t>
+  </si>
+  <si>
+    <t>中度缩量</t>
+  </si>
+  <si>
+    <t>高度缩量</t>
+  </si>
+  <si>
+    <t>高度缩量放缓</t>
+  </si>
+  <si>
+    <t>中度缩量放缓</t>
   </si>
   <si>
     <t>普通缩量放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中度缩量放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度缩量放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通缩量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中度缩量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度缩量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt; 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=0.65, &lt;0.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=0.85, &lt; 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;= 1, &lt; 1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=1, &lt;1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 1.2)</t>
-  </si>
-  <si>
-    <t>[1, 1.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1.2, 1.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1.5, 00)</t>
-  </si>
-  <si>
-    <t>[1.5, 00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.85, 00)</t>
-  </si>
-  <si>
-    <t>[1.2, 00)</t>
-  </si>
-  <si>
-    <t>[0, 0.65)</t>
-  </si>
-  <si>
-    <t>[0, 0.65)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0, 0.85)</t>
-  </si>
-  <si>
-    <t>[0.85, 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.65, 0.885)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ 1, &lt; 1.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0, 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 00)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.65, 0.85)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骤降人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中高放量降人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通放量降人气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma12_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma23_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma13_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通上涨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中度上涨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度上涨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma12_ratio&gt;ma23_ratio</t>
-  </si>
-  <si>
-    <t>ma12_ratio&lt;ma23_ratio</t>
-  </si>
-  <si>
-    <t>中度空头</t>
-  </si>
-  <si>
-    <t>高度空头</t>
-  </si>
-  <si>
-    <t>普通空头放缓</t>
-  </si>
-  <si>
-    <t>中度空头放缓</t>
-  </si>
-  <si>
-    <t>高度空头放缓</t>
-  </si>
-  <si>
-    <t>反弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空头反弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震荡反弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转反弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中高上涨回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通上涨回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多转空回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通上涨放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中度上涨放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度上涨放缓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通空头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0, 181.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 426.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2, 297.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3, 232.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4, 1176.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5, 1038.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [6, 174.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [7, 507.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [8, 281.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [9, 217.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [10, 903.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [11, 1429.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [12, 128.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [13, 442.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [14, 310.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [15, 103.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [16, 391.0],</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [17, 294.0]</t>
-  </si>
-  <si>
-    <t>ma_stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断多头，空头，调整，反弹，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mv_stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断阶段量能的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_stage_overall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重仓多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重仓空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻仓多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻仓空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中仓多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中仓空</t>
-  </si>
-  <si>
-    <t>震荡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vol_pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断收盘价位置 是否超买超卖 是否有均线支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩量反弹</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6B9F04-9A9B-4EC8-AEA6-95032E366215}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1048576"/>
+      <selection activeCell="E2" sqref="B2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1115,8 +1124,10 @@
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -1127,11 +1138,14 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1141,16 +1155,16 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1168,16 +1182,16 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1195,16 +1209,16 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1222,406 +1236,401 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"[" &amp;H5&amp;","&amp;""""&amp;E5&amp;""""&amp;"],"</f>
+        <v>[6,"高度放量放缓"],</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"[" &amp;H6&amp;","&amp;""""&amp;E6&amp;""""&amp;"],"</f>
+        <v>[5,"中度放量放缓"],</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>[4,"普通放量放缓"],</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>[5,"中度放量放缓"],</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>[6,"高度放量放缓"],</v>
-      </c>
-    </row>
     <row r="8" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>[7,"普通缩量"],</v>
+        <v>[7,"中高放量回调"],</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>[8,"中度缩量"],</v>
+        <v>[8,"普通放量回调"],</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>[9,"高度缩量"],</v>
+        <v>[9,"多转空回调"],</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>[10,"普通缩量放缓"],</v>
+        <v>[10,"普通缩量"],</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>[11,"中度缩量放缓"],</v>
+        <v>[11,"中度缩量"],</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>[12,"高度缩量放缓"],</v>
+        <v>[12,"高度缩量"],</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>[13,"缩量进攻"],</v>
+        <v>[13,"高度缩量放缓"],</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>[14,"反转进攻"],</v>
+        <v>[14,"中度缩量放缓"],</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>[15,"放量进攻"],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>[15,"普通缩量放缓"],</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>[16,"中高放量降人气"],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>[16,"缩量反弹"],</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>[17,"普通放量降人气"],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>[17,"震荡反弹"],</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19" t="str">
         <f>"[" &amp;H19&amp;","&amp;""""&amp;E19&amp;""""&amp;"]]"</f>
-        <v>[18,"骤降人气"]]</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
+        <v>[18,"空转多反弹"]]</v>
       </c>
     </row>
   </sheetData>
@@ -1635,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB479465-A32B-4B39-A01D-6C78170DC5B5}">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1649,20 +1658,21 @@
     <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -1673,16 +1683,16 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1692,7 +1702,7 @@
         <v>[[1,"普通上涨"],</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1703,26 +1713,26 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I18" si="0">"[" &amp;H3&amp;","&amp;""""&amp;E3&amp;""""&amp;"],"</f>
+        <f t="shared" ref="I3:I19" si="0">"[" &amp;H3&amp;","&amp;""""&amp;E3&amp;""""&amp;"],"</f>
         <v>[2,"中度上涨"],</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -1733,16 +1743,16 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1752,7 +1762,7 @@
         <v>[3,"高度上涨"],</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1763,26 +1773,26 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>[4,"普通上涨放缓"],</v>
+        <f>"[" &amp;H5&amp;","&amp;""""&amp;E5&amp;""""&amp;"],"</f>
+        <v>[4,"高度上涨放缓"],</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1793,26 +1803,26 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f>"[" &amp;H6&amp;","&amp;""""&amp;E6&amp;""""&amp;"],"</f>
         <v>[5,"中度上涨放缓"],</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1823,400 +1833,401 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>[6,"高度上涨放缓"],</v>
+        <v>[6,"普通上涨放缓"],</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>[7,"普通空头"],</v>
+        <f>"[" &amp;H8&amp;","&amp;""""&amp;E8&amp;""""&amp;"],"</f>
+        <v>[7,"中高上涨回调"],</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>8</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>[8,"中度空头"],</v>
+        <f>"[" &amp;H9&amp;","&amp;""""&amp;E9&amp;""""&amp;"],"</f>
+        <v>[8,"普通上涨回调"],</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>[9,"高度空头"],</v>
+        <f>"[" &amp;H10&amp;","&amp;""""&amp;E10&amp;""""&amp;"]]"</f>
+        <v>[9,"多转空回调"]]</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>[10,"普通空头放缓"],</v>
+        <v>[10,"普通空头"],</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
       </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>[11,"中度空头放缓"],</v>
+        <v>[11,"中度空头"],</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>[12,"高度空头放缓"],</v>
+        <v>[12,"高度空头"],</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>[13,"空头反弹"],</v>
+        <f>"[" &amp;H14&amp;","&amp;""""&amp;E14&amp;""""&amp;"],"</f>
+        <v>[13,"高度空头放缓"],</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
-        <v>[14,"震荡反弹"],</v>
+        <f>"[" &amp;H15&amp;","&amp;""""&amp;E15&amp;""""&amp;"],"</f>
+        <v>[14,"中度空头放缓"],</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>[15,"反转反弹"],</v>
+        <v>[15,"普通空头放缓"],</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>[16,"中高上涨回调"],</v>
+        <v>[16,"空头反弹"],</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>[17,"普通上涨回调"],</v>
+        <v>[17,"震荡反弹"],</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19" t="str">
-        <f>"[" &amp;H19&amp;","&amp;""""&amp;E19&amp;""""&amp;"]]"</f>
-        <v>[18,"多转空回调"]]</v>
+        <f t="shared" si="0"/>
+        <v>[18,"空转多反弹"],</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F378596-343B-43CB-AACA-BD9596242662}">
-  <dimension ref="D2:O8"/>
+  <dimension ref="D2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2226,70 +2237,183 @@
   <sheetData>
     <row r="2" spans="4:15" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="N4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>134</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3244CF0-D305-44B8-8221-E1B2CE423201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D7628-27E6-4225-BEC0-E671E09770E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="441" activeTab="3" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="164">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +550,69 @@
   </si>
   <si>
     <t>缩量反弹</t>
+  </si>
+  <si>
+    <t>&gt;=1, &lt;1.001</t>
+  </si>
+  <si>
+    <t>&gt;=1.001</t>
+  </si>
+  <si>
+    <t>&gt;= 1, &lt; 1.001</t>
+  </si>
+  <si>
+    <t>&gt;=1.001, &lt;1.003</t>
+  </si>
+  <si>
+    <t>&gt;=1.003</t>
+  </si>
+  <si>
+    <t>&gt;0.999</t>
+  </si>
+  <si>
+    <t>&lt;0.999</t>
+  </si>
+  <si>
+    <t>&gt;=0.999, &lt; 1</t>
+  </si>
+  <si>
+    <t>&gt;=0.997, &lt;0.999</t>
+  </si>
+  <si>
+    <t>&lt;0.997</t>
+  </si>
+  <si>
+    <t>[0, 0.997)</t>
+  </si>
+  <si>
+    <t>[0.997, 0.885)</t>
+  </si>
+  <si>
+    <t>[0.999, 00)</t>
+  </si>
+  <si>
+    <t>[0.997, 0.999)</t>
+  </si>
+  <si>
+    <t>[0, 0.999)</t>
+  </si>
+  <si>
+    <t>[0.999, 1)</t>
+  </si>
+  <si>
+    <t>[1, 1.001)</t>
+  </si>
+  <si>
+    <t>[1.001, 00)</t>
+  </si>
+  <si>
+    <t>[ 1, &lt; 1.001)</t>
+  </si>
+  <si>
+    <t>[1.001, 1.003)</t>
+  </si>
+  <si>
+    <t>[1.003, 00)</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1708,7 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1718,7 @@
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="27.44140625" customWidth="1"/>
     <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
@@ -1689,10 +1752,10 @@
         <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1719,10 +1782,10 @@
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1749,10 +1812,10 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1779,10 +1842,10 @@
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1809,10 +1872,10 @@
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1839,10 +1902,10 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1869,10 +1932,10 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -1899,10 +1962,10 @@
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -1959,10 +2022,10 @@
         <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1989,10 +2052,10 @@
         <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -2019,10 +2082,10 @@
         <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -2049,10 +2112,10 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -2079,10 +2142,10 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -2109,10 +2172,10 @@
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2139,10 +2202,10 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -2169,10 +2232,10 @@
         <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="H18">
         <v>17</v>

--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D7628-27E6-4225-BEC0-E671E09770E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DD9083-065F-4F29-853E-64F93E9C4F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="441" activeTab="3" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="441" activeTab="2" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,88 +531,106 @@
     <t>中高放量回调</t>
   </si>
   <si>
+    <t>中度缩量</t>
+  </si>
+  <si>
+    <t>高度缩量</t>
+  </si>
+  <si>
+    <t>高度缩量放缓</t>
+  </si>
+  <si>
+    <t>中度缩量放缓</t>
+  </si>
+  <si>
+    <t>普通缩量放缓</t>
+  </si>
+  <si>
+    <t>&gt;=1, &lt;1.001</t>
+  </si>
+  <si>
+    <t>&gt;=1.001</t>
+  </si>
+  <si>
+    <t>&gt;= 1, &lt; 1.001</t>
+  </si>
+  <si>
+    <t>&gt;=1.001, &lt;1.003</t>
+  </si>
+  <si>
+    <t>&gt;=1.003</t>
+  </si>
+  <si>
+    <t>&gt;0.999</t>
+  </si>
+  <si>
+    <t>&lt;0.999</t>
+  </si>
+  <si>
+    <t>&gt;=0.999, &lt; 1</t>
+  </si>
+  <si>
+    <t>&gt;=0.997, &lt;0.999</t>
+  </si>
+  <si>
+    <t>&lt;0.997</t>
+  </si>
+  <si>
+    <t>[0, 0.997)</t>
+  </si>
+  <si>
+    <t>[0.997, 0.885)</t>
+  </si>
+  <si>
+    <t>[0.999, 00)</t>
+  </si>
+  <si>
+    <t>[0.997, 0.999)</t>
+  </si>
+  <si>
+    <t>[0, 0.999)</t>
+  </si>
+  <si>
+    <t>[0.999, 1)</t>
+  </si>
+  <si>
+    <t>[1, 1.001)</t>
+  </si>
+  <si>
+    <t>[1.001, 00)</t>
+  </si>
+  <si>
+    <t>[ 1, &lt; 1.001)</t>
+  </si>
+  <si>
+    <t>[1.001, 1.003)</t>
+  </si>
+  <si>
+    <t>[1.003, 00)</t>
+  </si>
+  <si>
+    <t>放转缩回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>普通放量回调</t>
-  </si>
-  <si>
-    <t>中度缩量</t>
-  </si>
-  <si>
-    <t>高度缩量</t>
-  </si>
-  <si>
-    <t>高度缩量放缓</t>
-  </si>
-  <si>
-    <t>中度缩量放缓</t>
-  </si>
-  <si>
-    <t>普通缩量放缓</t>
-  </si>
-  <si>
-    <t>缩量反弹</t>
-  </si>
-  <si>
-    <t>&gt;=1, &lt;1.001</t>
-  </si>
-  <si>
-    <t>&gt;=1.001</t>
-  </si>
-  <si>
-    <t>&gt;= 1, &lt; 1.001</t>
-  </si>
-  <si>
-    <t>&gt;=1.001, &lt;1.003</t>
-  </si>
-  <si>
-    <t>&gt;=1.003</t>
-  </si>
-  <si>
-    <t>&gt;0.999</t>
-  </si>
-  <si>
-    <t>&lt;0.999</t>
-  </si>
-  <si>
-    <t>&gt;=0.999, &lt; 1</t>
-  </si>
-  <si>
-    <t>&gt;=0.997, &lt;0.999</t>
-  </si>
-  <si>
-    <t>&lt;0.997</t>
-  </si>
-  <si>
-    <t>[0, 0.997)</t>
-  </si>
-  <si>
-    <t>[0.997, 0.885)</t>
-  </si>
-  <si>
-    <t>[0.999, 00)</t>
-  </si>
-  <si>
-    <t>[0.997, 0.999)</t>
-  </si>
-  <si>
-    <t>[0, 0.999)</t>
-  </si>
-  <si>
-    <t>[0.999, 1)</t>
-  </si>
-  <si>
-    <t>[1, 1.001)</t>
-  </si>
-  <si>
-    <t>[1.001, 00)</t>
-  </si>
-  <si>
-    <t>[ 1, &lt; 1.001)</t>
-  </si>
-  <si>
-    <t>[1.001, 1.003)</t>
-  </si>
-  <si>
-    <t>[1.003, 00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高下跌反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通下跌反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高缩量反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通缩量反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1176,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6B9F04-9A9B-4EC8-AEA6-95032E366215}">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="B2:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1428,7 @@
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -1437,7 +1455,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -1450,7 +1468,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>[9,"多转空回调"],</v>
+        <v>[9,"放转缩回调"],</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -1491,7 +1509,7 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -1518,7 +1536,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -1545,7 +1563,7 @@
         <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1572,7 +1590,7 @@
         <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
@@ -1599,7 +1617,7 @@
         <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
@@ -1626,7 +1644,7 @@
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -1639,7 +1657,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>[16,"缩量反弹"],</v>
+        <v>[16,"中高缩量反弹"],</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1653,7 +1671,7 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1666,7 +1684,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>[17,"震荡反弹"],</v>
+        <v>[17,"普通缩量反弹"],</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1707,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB479465-A32B-4B39-A01D-6C78170DC5B5}">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1752,10 +1770,10 @@
         <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1782,10 +1800,10 @@
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1812,10 +1830,10 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1842,10 +1860,10 @@
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1872,10 +1890,10 @@
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1902,10 +1920,10 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -1932,10 +1950,10 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -1962,10 +1980,10 @@
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -2022,10 +2040,10 @@
         <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2052,10 +2070,10 @@
         <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -2082,10 +2100,10 @@
         <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -2112,10 +2130,10 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -2142,10 +2160,10 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -2172,10 +2190,10 @@
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2199,20 +2217,20 @@
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>[16,"空头反弹"],</v>
+        <v>[16,"中高下跌反弹"],</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>89</v>
@@ -2229,20 +2247,20 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>[17,"震荡反弹"],</v>
+        <v>[17,"普通下跌反弹"],</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>90</v>

--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DD9083-065F-4F29-853E-64F93E9C4F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02F366-C875-41F2-BC9E-67947F048DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="441" activeTab="2" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="441" activeTab="5" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="mv stage" sheetId="3" r:id="rId3"/>
     <sheet name="ma stage" sheetId="4" r:id="rId4"/>
     <sheet name="trading stage" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="173">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +631,26 @@
   </si>
   <si>
     <t>普通缩量反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2--4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3--5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4--6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +658,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,6 +679,15 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -682,12 +712,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6B9F04-9A9B-4EC8-AEA6-95032E366215}">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2307,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F378596-343B-43CB-AACA-BD9596242662}">
   <dimension ref="D2:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2501,4 +2537,38 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517CAA7C-486A-4582-8BB7-6206A58ABBED}">
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02F366-C875-41F2-BC9E-67947F048DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0549BC42-9A08-440B-B5F5-9397DEBAE256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="441" activeTab="5" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="175">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +652,14 @@
   </si>
   <si>
     <t>5--7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩(调)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1762,7 +1771,7 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2541,29 +2550,182 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517CAA7C-486A-4582-8BB7-6206A58ABBED}">
-  <dimension ref="B1:F1"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D1" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" t="s">
-        <v>172</v>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0549BC42-9A08-440B-B5F5-9397DEBAE256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01EA82B-77D2-41A2-A135-6432CDB20D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="441" activeTab="5" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" activeTab="6" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ma stage" sheetId="4" r:id="rId4"/>
     <sheet name="trading stage" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="ma category" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="192">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +661,74 @@
   </si>
   <si>
     <t>踩(调)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空头震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空转多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头震荡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多转空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空头下跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空头下跌减缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mslp0&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mslp0&lt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头上涨减缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df12&lt;df23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df12&gt;=df23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12_ratio&lt;ma23_ratio, ma13_ratio&gt;=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空头的反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma12_ratio&lt;ma23_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1771,7 +1840,7 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1849,7 @@
     <col min="2" max="2" width="6.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="27.44140625" customWidth="1"/>
@@ -2552,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517CAA7C-486A-4582-8BB7-6206A58ABBED}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2733,4 +2802,169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D2C851-7E46-4A89-B4FA-7E7C2EF5762C}">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/python/Py Quant Trading Practise/Pct Pattern.xlsx
+++ b/python/Py Quant Trading Practise/Pct Pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\Quants\python\Py Quant Trading Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01EA82B-77D2-41A2-A135-6432CDB20D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2F4392-6FC6-4AE4-990D-7D616AE64008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" activeTab="6" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
+    <workbookView xWindow="12180" yWindow="4068" windowWidth="16320" windowHeight="8748" tabRatio="686" firstSheet="2" activeTab="7" xr2:uid="{B0460CFB-DAA0-4C97-B704-D5C95F6EFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="trading stage" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
     <sheet name="ma category" sheetId="7" r:id="rId7"/>
+    <sheet name="mv stage2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="196">
   <si>
     <t>大跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,6 +729,22 @@
   </si>
   <si>
     <t>ma12_ratio&lt;ma23_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv23_ration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.15, 1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1.05, 1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95, 1.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2808,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D2C851-7E46-4A89-B4FA-7E7C2EF5762C}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2967,4 +2983,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD85E7C-7C93-4659-9234-2DC47E7D15EB}">
+  <dimension ref="C1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>